--- a/Excel Course with Mahmoud Khalifa/Video_Tutorials.xlsx
+++ b/Excel Course with Mahmoud Khalifa/Video_Tutorials.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Products\Codes\Excel\excel-skills-for-business\Excel Course with Mahmoud Khalifa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA9314D-0E7F-42FB-8E40-24E203E38879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB8F38-A559-477E-9B2C-1448D6B81718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{EF60B7AF-3295-457A-AA2E-C312C28BB8D4}"/>
+    <workbookView xWindow="16644" yWindow="1152" windowWidth="11496" windowHeight="8964" xr2:uid="{EF60B7AF-3295-457A-AA2E-C312C28BB8D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
   <si>
     <t>Mahmoud</t>
   </si>
@@ -269,17 +269,212 @@
   </si>
   <si>
     <t xml:space="preserve">Alt + …. </t>
+  </si>
+  <si>
+    <t>Video 5</t>
+  </si>
+  <si>
+    <t>Insert Column/Row - Home - Cells - insert(Sheet Rows - Sheet Columns)</t>
+  </si>
+  <si>
+    <t>Hide/UnHide Rows</t>
+  </si>
+  <si>
+    <t>Clear Contents (Ctrl + Delete)</t>
+  </si>
+  <si>
+    <t>(Ctrl + Delete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Contents </t>
+  </si>
+  <si>
+    <t>Video 6</t>
+  </si>
+  <si>
+    <t>CTRL + 1 (Format Cell)</t>
+  </si>
+  <si>
+    <t>Format Cells ( General - Date - Number - Currency …..) + Font + Border + Allignment</t>
+  </si>
+  <si>
+    <t>Video 7</t>
+  </si>
+  <si>
+    <t>CTRL + 1</t>
+  </si>
+  <si>
+    <t>Format Cells</t>
+  </si>
+  <si>
+    <t>Insert Tab Illustration</t>
+  </si>
+  <si>
+    <t>Insert ( Pivot Table - Table - (Picture+ Format) - Shapes -  Smart Art Graphic(Process - Cycle - Hierarachy …. Charts( Organizational chart)) - Screenshot - Charts - Slicer - Timeline - Hyperlink - Text - Symbol - Equation)</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>Video 8</t>
+  </si>
+  <si>
+    <t>Page Layout Illustration</t>
+  </si>
+  <si>
+    <t>Page Layout [ Themes(Colors - Fonts - effects] , Page( Margins - Orientation - Page size(A4) - Size Area - Breaks - Insert Background - Sheet Right to left - Sheet Options( Show/Hide Gridlines or Headings) - Scale to fit page) ]</t>
+  </si>
+  <si>
+    <t>Video 9</t>
+  </si>
+  <si>
+    <t>Formulas Tab Illustration</t>
+  </si>
+  <si>
+    <t>Formulas [ Insert Function(Manual search by function name) , AutoSum(Most Used Functions) , Functions Library( Financial - Logical - Text - Date &amp; Time - Lookup &amp; References - Math &amp; Trignometry - Statisitical - Engineering - Cube - Web) , Calculation Options( Automatic or Manual Calculation)                                                ]</t>
+  </si>
+  <si>
+    <t>Video 10</t>
+  </si>
+  <si>
+    <t>Data - Review - View Tabs Illustration</t>
+  </si>
+  <si>
+    <t>Data [  Get Data( from Access - From Web - From Text - From Other Resources) , Sort &amp; Filter - Forecast( What-if Analysis - Forecast Sheet  ]      Review[ check spelling , Comments, Protect Sheet/Workbook      ]                  View[ Workbook views( Normal - Page break view - Page layout) , Freeze Panes, Zoom, Macros           ]              File[ New - open - save - print    ]</t>
+  </si>
+  <si>
+    <t>Video 11</t>
+  </si>
+  <si>
+    <t>Sales amount</t>
+  </si>
+  <si>
+    <t>Osama</t>
+  </si>
+  <si>
+    <t>Yussef</t>
+  </si>
+  <si>
+    <t>Fahd</t>
+  </si>
+  <si>
+    <t>Borders &amp; Tables</t>
+  </si>
+  <si>
+    <t>Video 12</t>
+  </si>
+  <si>
+    <t>Charts الخرائط البيانية</t>
+  </si>
+  <si>
+    <t>بقدر اتحكم ف ال cells اللى هتقراها ال chart</t>
+  </si>
+  <si>
+    <t>Video 13</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>Student 7</t>
+  </si>
+  <si>
+    <t>Student 8</t>
+  </si>
+  <si>
+    <t>Student 9</t>
+  </si>
+  <si>
+    <t>Student 10</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Auto sum</t>
+  </si>
+  <si>
+    <t>Insert Function - search for SUM</t>
+  </si>
+  <si>
+    <t>alt +   +   +  =</t>
+  </si>
+  <si>
+    <t>Sum Function Shortcut</t>
+  </si>
+  <si>
+    <t>4 different methods to apply SUM Function</t>
+  </si>
+  <si>
+    <t>by Manual typing it</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Shortcut      ( alt +  = )</t>
+  </si>
+  <si>
+    <t>fill Handle</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>3 different methods to apply `MAX` Function</t>
+  </si>
+  <si>
+    <t>3 different methods to apply `MIN` Function</t>
+  </si>
+  <si>
+    <t>3 different methods to apply `AVERAGE` Function</t>
+  </si>
+  <si>
+    <t>Video 13 + Video 14 + Video 15</t>
+  </si>
+  <si>
+    <t>Functions ( SUM - MIN - MAX - AVERAGE</t>
+  </si>
+  <si>
+    <t>متوسط النجاح للعربى</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +482,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +490,7 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +498,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +506,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +515,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,13 +523,13 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -342,19 +537,27 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,8 +600,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -699,11 +920,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -713,9 +1003,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,9 +1020,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -757,12 +1041,6 @@
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,7 +1086,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,24 +1120,162 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -851,6 +1286,5968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arabic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$62:$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mahmoud</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mostafa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>اسم اتعدل بعدين</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Khalifa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3629-4D88-9386-1ACA1951455D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>English</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$62:$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mahmoud</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mostafa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>اسم اتعدل بعدين</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Khalifa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3629-4D88-9386-1ACA1951455D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>French</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$62:$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mahmoud</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mostafa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>اسم اتعدل بعدين</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Khalifa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3629-4D88-9386-1ACA1951455D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1766431967"/>
+        <c:axId val="1766424479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1766431967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766424479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766424479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766431967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="94000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="100000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="78000"/>
+                    <a:satMod val="120000"/>
+                    <a:lumMod val="99000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$104:$A$111</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Mahmoud</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ahmed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mohamed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mostafa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Osama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Yussef</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Fahd</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Khaled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$104:$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BACF-4C4D-8EAE-BF3FBF64EE96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="104338543"/>
+        <c:axId val="104340207"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104338543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104340207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104340207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104338543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{90419929-9D31-42B1-A509-EFE4831AFBAC}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{649482DB-ECC0-4953-AE85-DBA697DC953F}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{947222D8-E825-4B9C-85A6-D746B7FA2BDA}" type="parTrans" cxnId="{6DF65A71-D798-4E53-87AA-708A6C5A435D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E2551E0A-1968-433B-A6E5-7CE173603261}" type="sibTrans" cxnId="{6DF65A71-D798-4E53-87AA-708A6C5A435D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8AF3F518-C0B2-4DA0-8AD6-D4D286235CCB}" type="parTrans" cxnId="{0B245028-986C-4F2A-B51A-80649AA6FACD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F10DFD14-49A3-40A9-B552-B0BFC0B31B14}" type="sibTrans" cxnId="{0B245028-986C-4F2A-B51A-80649AA6FACD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA070392-21EC-45E3-A27D-3C79358A5F6B}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ABB674A1-1881-48F3-9CAA-779467CD2CF0}" type="parTrans" cxnId="{FB88F800-A670-406E-919C-07524D1D731A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C733FE65-1594-48F6-9EE8-9AAC66AEE683}" type="sibTrans" cxnId="{FB88F800-A670-406E-919C-07524D1D731A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3E820DD9-C300-43D6-8823-EAE922CC171E}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5D347A05-2E60-4779-A516-E286C9A7ACE4}" type="parTrans" cxnId="{00AF2BAE-2EE3-4761-BEB4-25365AD70062}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B66EE176-429B-46E5-9B08-7F8A656E7042}" type="sibTrans" cxnId="{00AF2BAE-2EE3-4761-BEB4-25365AD70062}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{34758C37-EE1E-41AB-9C99-DC9E575C3656}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{33CF11A9-7D43-4837-87D1-0150735051A1}" type="parTrans" cxnId="{86305A04-6F72-4B47-A081-85E68FF0E81A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8DCD4935-30E0-48DA-8058-39E3903691F0}" type="sibTrans" cxnId="{86305A04-6F72-4B47-A081-85E68FF0E81A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D58EA75F-98F4-4DEB-8F8A-5AC8BEE06AF4}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2464C16C-A6CC-472B-B663-CFD8CE462AEF}" type="parTrans" cxnId="{7E88F514-09C9-436B-8CC4-44FE9BC2CB6F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C49655E9-2FB2-493F-B9DF-CC7E4C17F301}" type="sibTrans" cxnId="{7E88F514-09C9-436B-8CC4-44FE9BC2CB6F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6F0A28E4-2499-4A48-994E-B9F6C79D69E9}" type="parTrans" cxnId="{A0C40914-5D37-4B8B-9E07-CB1F130A0591}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{78A68998-C707-40B5-9355-608D840C2950}" type="sibTrans" cxnId="{A0C40914-5D37-4B8B-9E07-CB1F130A0591}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{746BA14E-2D19-4EA7-8BDA-727352C8372F}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD22A2A2-6541-4BC8-934F-885A949DAAC6}" type="parTrans" cxnId="{232ED117-B24A-46C7-B722-BA5F81F9F59F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CDABDB59-DB28-430C-869F-3874990BE526}" type="sibTrans" cxnId="{232ED117-B24A-46C7-B722-BA5F81F9F59F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3D990E73-139A-4794-BD45-C9A8F835338C}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6FB86EF8-E8AD-46F9-ADBC-0BA4E672F69E}" type="parTrans" cxnId="{3A97358B-899B-414C-BD1F-DA81188CC6E4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6C2637A9-8149-42D8-825F-B3CF4C95A156}" type="sibTrans" cxnId="{3A97358B-899B-414C-BD1F-DA81188CC6E4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{569D1103-0376-4C65-8740-6FB72657E908}" type="pres">
+      <dgm:prSet presAssocID="{90419929-9D31-42B1-A509-EFE4831AFBAC}" presName="mainComposite" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6374E1BD-2E98-43F1-B83E-57E5BA56BDB5}" type="pres">
+      <dgm:prSet presAssocID="{90419929-9D31-42B1-A509-EFE4831AFBAC}" presName="hierFlow" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{05603CB0-C4B6-49AF-A566-0C437DE62686}" type="pres">
+      <dgm:prSet presAssocID="{90419929-9D31-42B1-A509-EFE4831AFBAC}" presName="firstBuf" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C86E6BA0-BD62-4969-AB6D-7D0D4A863694}" type="pres">
+      <dgm:prSet presAssocID="{90419929-9D31-42B1-A509-EFE4831AFBAC}" presName="hierChild1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{60283CFD-A064-425A-8A49-5D5F48F9C73F}" type="pres">
+      <dgm:prSet presAssocID="{649482DB-ECC0-4953-AE85-DBA697DC953F}" presName="Name14" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4FDCDAE2-2623-4422-8EA2-8D0F231D2B93}" type="pres">
+      <dgm:prSet presAssocID="{649482DB-ECC0-4953-AE85-DBA697DC953F}" presName="level1Shape" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EC7FAE0C-9A09-4FE3-B056-B91C13B40668}" type="pres">
+      <dgm:prSet presAssocID="{649482DB-ECC0-4953-AE85-DBA697DC953F}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3BD1887D-C167-4B5E-9AA7-4EC8F3BA3F8C}" type="pres">
+      <dgm:prSet presAssocID="{8AF3F518-C0B2-4DA0-8AD6-D4D286235CCB}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1DDB3A10-CC37-49EF-B42C-4C3E5572794E}" type="pres">
+      <dgm:prSet presAssocID="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F68B0747-27A7-4DD0-BDA2-941846E92DCE}" type="pres">
+      <dgm:prSet presAssocID="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE0B586A-0B59-49EE-BCCE-1719EDF52BF1}" type="pres">
+      <dgm:prSet presAssocID="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5139B5C2-F533-4358-9C29-2C97ADF671BF}" type="pres">
+      <dgm:prSet presAssocID="{ABB674A1-1881-48F3-9CAA-779467CD2CF0}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{04D9B81B-BB5A-4454-9BC6-960ECBA3AE93}" type="pres">
+      <dgm:prSet presAssocID="{CA070392-21EC-45E3-A27D-3C79358A5F6B}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A92E6784-E693-43C0-9F43-C1239BDAA002}" type="pres">
+      <dgm:prSet presAssocID="{CA070392-21EC-45E3-A27D-3C79358A5F6B}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C743FD36-1FAE-4B14-A2A4-65AD6C72C1C5}" type="pres">
+      <dgm:prSet presAssocID="{CA070392-21EC-45E3-A27D-3C79358A5F6B}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3E6C4175-E542-4B6A-B493-31DC8C604FCA}" type="pres">
+      <dgm:prSet presAssocID="{5D347A05-2E60-4779-A516-E286C9A7ACE4}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{20F55080-E35F-4158-B503-49E0B0234175}" type="pres">
+      <dgm:prSet presAssocID="{3E820DD9-C300-43D6-8823-EAE922CC171E}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5A9A30E1-9C69-4673-9402-51B2AA760EC5}" type="pres">
+      <dgm:prSet presAssocID="{3E820DD9-C300-43D6-8823-EAE922CC171E}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FEFB04B-F02E-4ACC-B3FA-DF1121A72E87}" type="pres">
+      <dgm:prSet presAssocID="{3E820DD9-C300-43D6-8823-EAE922CC171E}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4F94049F-B74C-4AAE-83E9-A7ECE52B3D75}" type="pres">
+      <dgm:prSet presAssocID="{33CF11A9-7D43-4837-87D1-0150735051A1}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BD00AADA-E691-4CE4-903B-A0DDF1B9579A}" type="pres">
+      <dgm:prSet presAssocID="{34758C37-EE1E-41AB-9C99-DC9E575C3656}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{64675B70-AC90-40B7-96AA-89E6CD32060C}" type="pres">
+      <dgm:prSet presAssocID="{34758C37-EE1E-41AB-9C99-DC9E575C3656}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D4DF9D78-5AAD-47CC-A730-E854838AFF8D}" type="pres">
+      <dgm:prSet presAssocID="{34758C37-EE1E-41AB-9C99-DC9E575C3656}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B58FCE70-51BB-4402-8F04-BFAEF67830E3}" type="pres">
+      <dgm:prSet presAssocID="{2464C16C-A6CC-472B-B663-CFD8CE462AEF}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{555B9E8A-0470-431C-8D4B-C80085189DD5}" type="pres">
+      <dgm:prSet presAssocID="{D58EA75F-98F4-4DEB-8F8A-5AC8BEE06AF4}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{359B2ED2-65FA-4F54-BBD5-E6B5AEF7EB7E}" type="pres">
+      <dgm:prSet presAssocID="{D58EA75F-98F4-4DEB-8F8A-5AC8BEE06AF4}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E738D90A-98BC-4F7A-81D9-5CCF7D501B5A}" type="pres">
+      <dgm:prSet presAssocID="{D58EA75F-98F4-4DEB-8F8A-5AC8BEE06AF4}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{31553988-43E9-44AC-8C9A-6DFCB11C2A44}" type="pres">
+      <dgm:prSet presAssocID="{90419929-9D31-42B1-A509-EFE4831AFBAC}" presName="bgShapesFlow" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A9264C64-DD40-4A3C-9A32-7565BA54BB15}" type="pres">
+      <dgm:prSet presAssocID="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" presName="rectComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9A14EC82-D40A-4341-997E-23CD35CBF2A1}" type="pres">
+      <dgm:prSet presAssocID="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E69C7B8-EEB9-4C53-917B-E162B567EDEA}" type="pres">
+      <dgm:prSet presAssocID="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2437A0DC-2803-4976-AA50-3941E6CAB559}" type="pres">
+      <dgm:prSet presAssocID="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" presName="spComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{813334DD-EFDB-48E0-AE4E-DAEC3869FB56}" type="pres">
+      <dgm:prSet presAssocID="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" presName="vSp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5757475B-CFF8-4292-9545-CCF6701532ED}" type="pres">
+      <dgm:prSet presAssocID="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" presName="rectComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F05BA67B-544F-4442-A00F-75AE6F12124E}" type="pres">
+      <dgm:prSet presAssocID="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{07935E90-EBCA-4036-922C-E84EA28D44B5}" type="pres">
+      <dgm:prSet presAssocID="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AEFDC2B0-9AA1-414D-A0F3-C3C680D72445}" type="pres">
+      <dgm:prSet presAssocID="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" presName="spComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9B18413E-A765-4C5F-9325-0985DE0302DF}" type="pres">
+      <dgm:prSet presAssocID="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" presName="vSp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{23304CE5-9D27-4C88-8B48-A8A8E2BDD1CC}" type="pres">
+      <dgm:prSet presAssocID="{3D990E73-139A-4794-BD45-C9A8F835338C}" presName="rectComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{259068FB-9A2D-404B-9B33-BDB8A98FAF62}" type="pres">
+      <dgm:prSet presAssocID="{3D990E73-139A-4794-BD45-C9A8F835338C}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76DC4041-CC45-4079-BF9F-C1C082D5B605}" type="pres">
+      <dgm:prSet presAssocID="{3D990E73-139A-4794-BD45-C9A8F835338C}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{FB88F800-A670-406E-919C-07524D1D731A}" srcId="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}" destId="{CA070392-21EC-45E3-A27D-3C79358A5F6B}" srcOrd="0" destOrd="0" parTransId="{ABB674A1-1881-48F3-9CAA-779467CD2CF0}" sibTransId="{C733FE65-1594-48F6-9EE8-9AAC66AEE683}"/>
+    <dgm:cxn modelId="{86305A04-6F72-4B47-A081-85E68FF0E81A}" srcId="{649482DB-ECC0-4953-AE85-DBA697DC953F}" destId="{34758C37-EE1E-41AB-9C99-DC9E575C3656}" srcOrd="1" destOrd="0" parTransId="{33CF11A9-7D43-4837-87D1-0150735051A1}" sibTransId="{8DCD4935-30E0-48DA-8058-39E3903691F0}"/>
+    <dgm:cxn modelId="{1499C50B-F672-4888-AAA9-52B7FD766F94}" type="presOf" srcId="{CA070392-21EC-45E3-A27D-3C79358A5F6B}" destId="{A92E6784-E693-43C0-9F43-C1239BDAA002}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{A0C40914-5D37-4B8B-9E07-CB1F130A0591}" srcId="{90419929-9D31-42B1-A509-EFE4831AFBAC}" destId="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" srcOrd="1" destOrd="0" parTransId="{6F0A28E4-2499-4A48-994E-B9F6C79D69E9}" sibTransId="{78A68998-C707-40B5-9355-608D840C2950}"/>
+    <dgm:cxn modelId="{7E88F514-09C9-436B-8CC4-44FE9BC2CB6F}" srcId="{34758C37-EE1E-41AB-9C99-DC9E575C3656}" destId="{D58EA75F-98F4-4DEB-8F8A-5AC8BEE06AF4}" srcOrd="0" destOrd="0" parTransId="{2464C16C-A6CC-472B-B663-CFD8CE462AEF}" sibTransId="{C49655E9-2FB2-493F-B9DF-CC7E4C17F301}"/>
+    <dgm:cxn modelId="{232ED117-B24A-46C7-B722-BA5F81F9F59F}" srcId="{90419929-9D31-42B1-A509-EFE4831AFBAC}" destId="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" srcOrd="2" destOrd="0" parTransId="{DD22A2A2-6541-4BC8-934F-885A949DAAC6}" sibTransId="{CDABDB59-DB28-430C-869F-3874990BE526}"/>
+    <dgm:cxn modelId="{0B245028-986C-4F2A-B51A-80649AA6FACD}" srcId="{649482DB-ECC0-4953-AE85-DBA697DC953F}" destId="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}" srcOrd="0" destOrd="0" parTransId="{8AF3F518-C0B2-4DA0-8AD6-D4D286235CCB}" sibTransId="{F10DFD14-49A3-40A9-B552-B0BFC0B31B14}"/>
+    <dgm:cxn modelId="{D8F9D82C-3F76-49B7-9067-958117C2C7A1}" type="presOf" srcId="{90419929-9D31-42B1-A509-EFE4831AFBAC}" destId="{569D1103-0376-4C65-8740-6FB72657E908}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{6F94642D-D5A1-46E8-AAFA-124B7B9FD266}" type="presOf" srcId="{649482DB-ECC0-4953-AE85-DBA697DC953F}" destId="{4FDCDAE2-2623-4422-8EA2-8D0F231D2B93}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{AECE1344-F0F4-4A00-8B0E-DDA361FCBE6E}" type="presOf" srcId="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" destId="{7E69C7B8-EEB9-4C53-917B-E162B567EDEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F1505E6B-F096-4A39-A304-240C1452505B}" type="presOf" srcId="{2464C16C-A6CC-472B-B663-CFD8CE462AEF}" destId="{B58FCE70-51BB-4402-8F04-BFAEF67830E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{9B290B6D-4531-4073-8CA0-0D269D45D427}" type="presOf" srcId="{3D990E73-139A-4794-BD45-C9A8F835338C}" destId="{76DC4041-CC45-4079-BF9F-C1C082D5B605}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{6DF65A71-D798-4E53-87AA-708A6C5A435D}" srcId="{90419929-9D31-42B1-A509-EFE4831AFBAC}" destId="{649482DB-ECC0-4953-AE85-DBA697DC953F}" srcOrd="0" destOrd="0" parTransId="{947222D8-E825-4B9C-85A6-D746B7FA2BDA}" sibTransId="{E2551E0A-1968-433B-A6E5-7CE173603261}"/>
+    <dgm:cxn modelId="{DB5C8352-B242-43F3-97C5-204946B8291B}" type="presOf" srcId="{7E59EE75-FFE2-4443-9C6C-FD9D59A702ED}" destId="{9A14EC82-D40A-4341-997E-23CD35CBF2A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{8E45AE74-BB0C-4AA8-9477-D0F5B5766ECB}" type="presOf" srcId="{3E820DD9-C300-43D6-8823-EAE922CC171E}" destId="{5A9A30E1-9C69-4673-9402-51B2AA760EC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{3A97358B-899B-414C-BD1F-DA81188CC6E4}" srcId="{90419929-9D31-42B1-A509-EFE4831AFBAC}" destId="{3D990E73-139A-4794-BD45-C9A8F835338C}" srcOrd="3" destOrd="0" parTransId="{6FB86EF8-E8AD-46F9-ADBC-0BA4E672F69E}" sibTransId="{6C2637A9-8149-42D8-825F-B3CF4C95A156}"/>
+    <dgm:cxn modelId="{982D228D-2588-4AAA-BD6E-A59B39248CF5}" type="presOf" srcId="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" destId="{07935E90-EBCA-4036-922C-E84EA28D44B5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F47AD2A9-B3B6-45CF-96B4-68CF3122FF38}" type="presOf" srcId="{746BA14E-2D19-4EA7-8BDA-727352C8372F}" destId="{F05BA67B-544F-4442-A00F-75AE6F12124E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{00AF2BAE-2EE3-4761-BEB4-25365AD70062}" srcId="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}" destId="{3E820DD9-C300-43D6-8823-EAE922CC171E}" srcOrd="1" destOrd="0" parTransId="{5D347A05-2E60-4779-A516-E286C9A7ACE4}" sibTransId="{B66EE176-429B-46E5-9B08-7F8A656E7042}"/>
+    <dgm:cxn modelId="{3B9ADCAE-A108-4063-8D75-FC8610501577}" type="presOf" srcId="{D7CC7F02-6957-43B1-BD5F-A7265EF89C54}" destId="{F68B0747-27A7-4DD0-BDA2-941846E92DCE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{A8F3D6B2-A876-4239-8FBF-A5272078E821}" type="presOf" srcId="{D58EA75F-98F4-4DEB-8F8A-5AC8BEE06AF4}" destId="{359B2ED2-65FA-4F54-BBD5-E6B5AEF7EB7E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{C21D59BC-B9B4-4530-867D-257A4C76BA27}" type="presOf" srcId="{8AF3F518-C0B2-4DA0-8AD6-D4D286235CCB}" destId="{3BD1887D-C167-4B5E-9AA7-4EC8F3BA3F8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{C8BA93D9-40E6-4A54-8EA2-5A3A5C7A3A4B}" type="presOf" srcId="{33CF11A9-7D43-4837-87D1-0150735051A1}" destId="{4F94049F-B74C-4AAE-83E9-A7ECE52B3D75}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{65562CDA-6454-43D2-845F-D394BD29097B}" type="presOf" srcId="{ABB674A1-1881-48F3-9CAA-779467CD2CF0}" destId="{5139B5C2-F533-4358-9C29-2C97ADF671BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{B37361E5-5A97-4AF2-9A92-4C10C4A0B035}" type="presOf" srcId="{34758C37-EE1E-41AB-9C99-DC9E575C3656}" destId="{64675B70-AC90-40B7-96AA-89E6CD32060C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{822909F8-7B16-4F89-80F5-DBE6869D20BE}" type="presOf" srcId="{5D347A05-2E60-4779-A516-E286C9A7ACE4}" destId="{3E6C4175-E542-4B6A-B493-31DC8C604FCA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2CF5BBFF-6D16-4664-8127-5B634D0B22A5}" type="presOf" srcId="{3D990E73-139A-4794-BD45-C9A8F835338C}" destId="{259068FB-9A2D-404B-9B33-BDB8A98FAF62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F6112BCE-9CA1-421A-9783-A50568B52A5C}" type="presParOf" srcId="{569D1103-0376-4C65-8740-6FB72657E908}" destId="{6374E1BD-2E98-43F1-B83E-57E5BA56BDB5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{AD8135D8-D1F1-4036-BB33-95C883FDF367}" type="presParOf" srcId="{6374E1BD-2E98-43F1-B83E-57E5BA56BDB5}" destId="{05603CB0-C4B6-49AF-A566-0C437DE62686}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7FB68289-4F62-4CFD-8E99-2D1C3C108027}" type="presParOf" srcId="{6374E1BD-2E98-43F1-B83E-57E5BA56BDB5}" destId="{C86E6BA0-BD62-4969-AB6D-7D0D4A863694}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{783D091D-4995-4A40-B93C-77CA1806C195}" type="presParOf" srcId="{C86E6BA0-BD62-4969-AB6D-7D0D4A863694}" destId="{60283CFD-A064-425A-8A49-5D5F48F9C73F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{250D495C-897D-4D15-AC40-83ED98C3900E}" type="presParOf" srcId="{60283CFD-A064-425A-8A49-5D5F48F9C73F}" destId="{4FDCDAE2-2623-4422-8EA2-8D0F231D2B93}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2952EC79-5556-4C2F-9A87-7BD7990E11E9}" type="presParOf" srcId="{60283CFD-A064-425A-8A49-5D5F48F9C73F}" destId="{EC7FAE0C-9A09-4FE3-B056-B91C13B40668}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{8FFDF1E6-1CAD-4CDF-A931-62BFB68C3D6E}" type="presParOf" srcId="{EC7FAE0C-9A09-4FE3-B056-B91C13B40668}" destId="{3BD1887D-C167-4B5E-9AA7-4EC8F3BA3F8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{81261D34-DBD0-4E00-B750-EEE74A630604}" type="presParOf" srcId="{EC7FAE0C-9A09-4FE3-B056-B91C13B40668}" destId="{1DDB3A10-CC37-49EF-B42C-4C3E5572794E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{057D2123-0462-4506-9F07-44E0387759D6}" type="presParOf" srcId="{1DDB3A10-CC37-49EF-B42C-4C3E5572794E}" destId="{F68B0747-27A7-4DD0-BDA2-941846E92DCE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{763B6509-C8CA-405A-891D-FD595FD79543}" type="presParOf" srcId="{1DDB3A10-CC37-49EF-B42C-4C3E5572794E}" destId="{EE0B586A-0B59-49EE-BCCE-1719EDF52BF1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4E64E877-DFD7-4904-AD0E-424788B7D4E0}" type="presParOf" srcId="{EE0B586A-0B59-49EE-BCCE-1719EDF52BF1}" destId="{5139B5C2-F533-4358-9C29-2C97ADF671BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{CE723759-32CB-4947-A06E-0A0FA16C04E8}" type="presParOf" srcId="{EE0B586A-0B59-49EE-BCCE-1719EDF52BF1}" destId="{04D9B81B-BB5A-4454-9BC6-960ECBA3AE93}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{77CB1465-C94D-455A-AE38-0E6F07A4112A}" type="presParOf" srcId="{04D9B81B-BB5A-4454-9BC6-960ECBA3AE93}" destId="{A92E6784-E693-43C0-9F43-C1239BDAA002}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{3FD9B164-959B-4D1E-8ADC-08E8636E5F8E}" type="presParOf" srcId="{04D9B81B-BB5A-4454-9BC6-960ECBA3AE93}" destId="{C743FD36-1FAE-4B14-A2A4-65AD6C72C1C5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4DAC9182-5A3B-4461-ADC3-7A689ABA21C2}" type="presParOf" srcId="{EE0B586A-0B59-49EE-BCCE-1719EDF52BF1}" destId="{3E6C4175-E542-4B6A-B493-31DC8C604FCA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{BD594025-FB90-4650-AE79-AE13AB7F0A55}" type="presParOf" srcId="{EE0B586A-0B59-49EE-BCCE-1719EDF52BF1}" destId="{20F55080-E35F-4158-B503-49E0B0234175}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{BC4AB2FF-8F1B-4A10-9E98-485484AFD350}" type="presParOf" srcId="{20F55080-E35F-4158-B503-49E0B0234175}" destId="{5A9A30E1-9C69-4673-9402-51B2AA760EC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{13947F3B-4082-4CC0-BFE8-7FDC063F60AC}" type="presParOf" srcId="{20F55080-E35F-4158-B503-49E0B0234175}" destId="{6FEFB04B-F02E-4ACC-B3FA-DF1121A72E87}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{07D99233-F46C-4567-AB8D-9E5EB2D22037}" type="presParOf" srcId="{EC7FAE0C-9A09-4FE3-B056-B91C13B40668}" destId="{4F94049F-B74C-4AAE-83E9-A7ECE52B3D75}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{07F0EC0F-B477-4BA1-BFCD-78F85D7F184C}" type="presParOf" srcId="{EC7FAE0C-9A09-4FE3-B056-B91C13B40668}" destId="{BD00AADA-E691-4CE4-903B-A0DDF1B9579A}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{E0875541-2764-445D-A873-958AE70B8A87}" type="presParOf" srcId="{BD00AADA-E691-4CE4-903B-A0DDF1B9579A}" destId="{64675B70-AC90-40B7-96AA-89E6CD32060C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7CAD6304-F741-4C4F-BF15-7850B1DDE697}" type="presParOf" srcId="{BD00AADA-E691-4CE4-903B-A0DDF1B9579A}" destId="{D4DF9D78-5AAD-47CC-A730-E854838AFF8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{1648EEB3-555E-48BB-8698-9DE56788E956}" type="presParOf" srcId="{D4DF9D78-5AAD-47CC-A730-E854838AFF8D}" destId="{B58FCE70-51BB-4402-8F04-BFAEF67830E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{533F18F7-7E7C-4125-B66E-D1994089C374}" type="presParOf" srcId="{D4DF9D78-5AAD-47CC-A730-E854838AFF8D}" destId="{555B9E8A-0470-431C-8D4B-C80085189DD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{23D002D2-81F2-4B33-8D02-84EAAC951958}" type="presParOf" srcId="{555B9E8A-0470-431C-8D4B-C80085189DD5}" destId="{359B2ED2-65FA-4F54-BBD5-E6B5AEF7EB7E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{73086712-B4FE-4246-B662-BD5DEB11D91D}" type="presParOf" srcId="{555B9E8A-0470-431C-8D4B-C80085189DD5}" destId="{E738D90A-98BC-4F7A-81D9-5CCF7D501B5A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2E992416-6733-407D-8968-1FB61A0DA872}" type="presParOf" srcId="{569D1103-0376-4C65-8740-6FB72657E908}" destId="{31553988-43E9-44AC-8C9A-6DFCB11C2A44}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7CEEFEDD-50FA-437A-893C-4EEC0F60BFC4}" type="presParOf" srcId="{31553988-43E9-44AC-8C9A-6DFCB11C2A44}" destId="{A9264C64-DD40-4A3C-9A32-7565BA54BB15}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{AC087DB7-BD6B-4F51-B9FF-E837E6CCAAC2}" type="presParOf" srcId="{A9264C64-DD40-4A3C-9A32-7565BA54BB15}" destId="{9A14EC82-D40A-4341-997E-23CD35CBF2A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{31A4AEC8-A423-46EE-8E55-EB7924006079}" type="presParOf" srcId="{A9264C64-DD40-4A3C-9A32-7565BA54BB15}" destId="{7E69C7B8-EEB9-4C53-917B-E162B567EDEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{270E299F-0AA6-4AAE-8A02-3ACB9747DE19}" type="presParOf" srcId="{31553988-43E9-44AC-8C9A-6DFCB11C2A44}" destId="{2437A0DC-2803-4976-AA50-3941E6CAB559}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{065E9382-27E3-4327-ADB4-86812AFB5DD5}" type="presParOf" srcId="{2437A0DC-2803-4976-AA50-3941E6CAB559}" destId="{813334DD-EFDB-48E0-AE4E-DAEC3869FB56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F23CD369-9315-41C6-A305-668BD3D13906}" type="presParOf" srcId="{31553988-43E9-44AC-8C9A-6DFCB11C2A44}" destId="{5757475B-CFF8-4292-9545-CCF6701532ED}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{AAB33364-3815-4CB1-8262-5BCBFE7D984E}" type="presParOf" srcId="{5757475B-CFF8-4292-9545-CCF6701532ED}" destId="{F05BA67B-544F-4442-A00F-75AE6F12124E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{BA7AFD6A-39E6-48B7-9226-1E739449DA9C}" type="presParOf" srcId="{5757475B-CFF8-4292-9545-CCF6701532ED}" destId="{07935E90-EBCA-4036-922C-E84EA28D44B5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{B7B8A85E-2EAE-43F1-94A8-01157B47619C}" type="presParOf" srcId="{31553988-43E9-44AC-8C9A-6DFCB11C2A44}" destId="{AEFDC2B0-9AA1-414D-A0F3-C3C680D72445}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{0F168B84-63EB-4C47-8770-AB747F09BA55}" type="presParOf" srcId="{AEFDC2B0-9AA1-414D-A0F3-C3C680D72445}" destId="{9B18413E-A765-4C5F-9325-0985DE0302DF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{DFECA1B1-4E96-4374-8ECB-3B5C139C5038}" type="presParOf" srcId="{31553988-43E9-44AC-8C9A-6DFCB11C2A44}" destId="{23304CE5-9D27-4C88-8B48-A8A8E2BDD1CC}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D9B8CB37-B624-46EA-8ACC-962BD5BD6B57}" type="presParOf" srcId="{23304CE5-9D27-4C88-8B48-A8A8E2BDD1CC}" destId="{259068FB-9A2D-404B-9B33-BDB8A98FAF62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{FEFCA596-DD2B-4A34-BE9A-6CCED5988165}" type="presParOf" srcId="{23304CE5-9D27-4C88-8B48-A8A8E2BDD1CC}" destId="{76DC4041-CC45-4079-BF9F-C1C082D5B605}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId6" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{259068FB-9A2D-404B-9B33-BDB8A98FAF62}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="938804"/>
+          <a:ext cx="2371724" cy="358074"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="92456" tIns="92456" rIns="92456" bIns="92456" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="938804"/>
+        <a:ext cx="711517" cy="358074"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F05BA67B-544F-4442-A00F-75AE6F12124E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="521050"/>
+          <a:ext cx="2371724" cy="358074"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="92456" tIns="92456" rIns="92456" bIns="92456" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="521050"/>
+        <a:ext cx="711517" cy="358074"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9A14EC82-D40A-4341-997E-23CD35CBF2A1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="103296"/>
+          <a:ext cx="2371724" cy="358074"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="92456" tIns="92456" rIns="92456" bIns="92456" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="103296"/>
+        <a:ext cx="711517" cy="358074"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4FDCDAE2-2623-4422-8EA2-8D0F231D2B93}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1439575" y="133135"/>
+          <a:ext cx="447593" cy="298395"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1448315" y="141875"/>
+        <a:ext cx="430113" cy="280915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3BD1887D-C167-4B5E-9AA7-4EC8F3BA3F8C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1226968" y="431531"/>
+          <a:ext cx="436403" cy="119358"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="436403" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="436403" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="119358"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F68B0747-27A7-4DD0-BDA2-941846E92DCE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1003171" y="550889"/>
+          <a:ext cx="447593" cy="298395"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1011911" y="559629"/>
+        <a:ext cx="430113" cy="280915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5139B5C2-F533-4358-9C29-2C97ADF671BF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="936032" y="849285"/>
+          <a:ext cx="290935" cy="119358"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="290935" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="290935" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="119358"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A92E6784-E693-43C0-9F43-C1239BDAA002}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="712235" y="968643"/>
+          <a:ext cx="447593" cy="298395"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="720975" y="977383"/>
+        <a:ext cx="430113" cy="280915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3E6C4175-E542-4B6A-B493-31DC8C604FCA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1226968" y="849285"/>
+          <a:ext cx="290935" cy="119358"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="290935" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="290935" y="119358"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5A9A30E1-9C69-4673-9402-51B2AA760EC5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1294107" y="968643"/>
+          <a:ext cx="447593" cy="298395"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1302847" y="977383"/>
+        <a:ext cx="430113" cy="280915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4F94049F-B74C-4AAE-83E9-A7ECE52B3D75}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1663371" y="431531"/>
+          <a:ext cx="436403" cy="119358"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="436403" y="59679"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="436403" y="119358"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{64675B70-AC90-40B7-96AA-89E6CD32060C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1875978" y="550889"/>
+          <a:ext cx="447593" cy="298395"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1884718" y="559629"/>
+        <a:ext cx="430113" cy="280915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B58FCE70-51BB-4402-8F04-BFAEF67830E3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2054055" y="849285"/>
+          <a:ext cx="91440" cy="119358"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="119358"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{359B2ED2-65FA-4F54-BBD5-E6B5AEF7EB7E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1875978" y="968643"/>
+          <a:ext cx="447593" cy="298395"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1884718" y="977383"/>
+        <a:ext cx="430113" cy="280915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="3000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="6">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="7" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="4" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="5" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="0" destId="6" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="5"/>
+        <dgm:pt modelId="6"/>
+        <dgm:pt modelId="7"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="8" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="4" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="0" destId="5" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="0" destId="6" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="0" destId="7" srcOrd="4" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="mainComposite">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="vertAlign" val="mid"/>
+      <dgm:param type="horzAlign" val="ctr"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" axis="ch" ptType="node" func="cnt" op="gte" val="2">
+        <dgm:choose name="Name2">
+          <dgm:if name="Name3" func="var" arg="dir" op="equ" val="norm">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="hierFlow" refType="w" fact="0.3"/>
+              <dgm:constr type="t" for="ch" forName="hierFlow"/>
+              <dgm:constr type="r" for="ch" forName="hierFlow" refType="w" fact="0.98"/>
+              <dgm:constr type="b" for="ch" forName="hierFlow" refType="h" fact="0.98"/>
+              <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+              <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+              <dgm:constr type="w" for="des" forName="level1Shape" refType="w"/>
+              <dgm:constr type="h" for="des" forName="level1Shape" refType="w" refFor="des" refForName="level1Shape" fact="0.66667"/>
+              <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="sp" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.3"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="userA" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+              <dgm:constr type="h" for="des" forName="firstBuf" refType="h" refFor="des" refForName="level1Shape" fact="0.1"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name4">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="hierFlow" refType="w" fact="0.02"/>
+              <dgm:constr type="t" for="ch" forName="hierFlow"/>
+              <dgm:constr type="r" for="ch" forName="hierFlow" refType="w" fact="0.7"/>
+              <dgm:constr type="b" for="ch" forName="hierFlow" refType="h" fact="0.98"/>
+              <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+              <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+              <dgm:constr type="w" for="des" forName="level1Shape" refType="w"/>
+              <dgm:constr type="h" for="des" forName="level1Shape" refType="w" refFor="des" refForName="level1Shape" fact="0.66667"/>
+              <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="sp" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.3"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="userA" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+              <dgm:constr type="h" for="des" forName="firstBuf" refType="h" refFor="des" refForName="level1Shape" fact="0.1"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+      </dgm:if>
+      <dgm:else name="Name5">
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="hierFlow"/>
+          <dgm:constr type="t" for="ch" forName="hierFlow"/>
+          <dgm:constr type="r" for="ch" forName="hierFlow" refType="w"/>
+          <dgm:constr type="b" for="ch" forName="hierFlow" refType="h"/>
+          <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+          <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+          <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+          <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+          <dgm:constr type="w" for="des" forName="level1Shape" refType="w"/>
+          <dgm:constr type="h" for="des" forName="level1Shape" refType="w" refFor="des" refForName="level1Shape" fact="0.66667"/>
+          <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="sp" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.3"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+          <dgm:constr type="userA" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+          <dgm:constr type="h" for="des" forName="firstBuf" refType="h" refFor="des" refForName="level1Shape" fact="0.1"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="hierFlow">
+      <dgm:alg type="lin">
+        <dgm:param type="linDir" val="fromT"/>
+        <dgm:param type="nodeVertAlign" val="t"/>
+        <dgm:param type="vertAlign" val="t"/>
+        <dgm:param type="nodeHorzAlign" val="ctr"/>
+        <dgm:param type="fallback" val="2D"/>
+      </dgm:alg>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst/>
+      <dgm:ruleLst/>
+      <dgm:choose name="Name6">
+        <dgm:if name="Name7" axis="ch" ptType="node" func="cnt" op="gte" val="2">
+          <dgm:layoutNode name="firstBuf">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+        </dgm:if>
+        <dgm:else name="Name8"/>
+      </dgm:choose>
+      <dgm:layoutNode name="hierChild1">
+        <dgm:varLst>
+          <dgm:chPref val="1"/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+        </dgm:varLst>
+        <dgm:choose name="Name9">
+          <dgm:if name="Name10" func="var" arg="dir" op="equ" val="norm">
+            <dgm:alg type="hierChild">
+              <dgm:param type="linDir" val="fromL"/>
+              <dgm:param type="vertAlign" val="t"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name11">
+            <dgm:alg type="hierChild">
+              <dgm:param type="linDir" val="fromR"/>
+              <dgm:param type="vertAlign" val="t"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ"/>
+        </dgm:constrLst>
+        <dgm:ruleLst/>
+        <dgm:forEach name="Name12" axis="ch" cnt="3">
+          <dgm:forEach name="Name13" axis="self" ptType="node">
+            <dgm:layoutNode name="Name14">
+              <dgm:alg type="hierRoot"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+              <dgm:layoutNode name="level1Shape" styleLbl="node0">
+                <dgm:varLst>
+                  <dgm:chPref val="3"/>
+                </dgm:varLst>
+                <dgm:alg type="tx"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                  <dgm:adjLst>
+                    <dgm:adj idx="1" val="0.1"/>
+                  </dgm:adjLst>
+                </dgm:shape>
+                <dgm:presOf axis="self"/>
+                <dgm:constrLst>
+                  <dgm:constr type="primFontSz" val="65"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+                </dgm:constrLst>
+                <dgm:ruleLst>
+                  <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                </dgm:ruleLst>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="hierChild2">
+                <dgm:choose name="Name15">
+                  <dgm:if name="Name16" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromL"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name17">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromR"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst/>
+                <dgm:ruleLst/>
+                <dgm:forEach name="repeat" axis="ch">
+                  <dgm:forEach name="Name18" axis="self" ptType="parTrans" cnt="1">
+                    <dgm:layoutNode name="Name19">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="tCtr"/>
+                      </dgm:alg>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="w" val="1"/>
+                        <dgm:constr type="h" val="1"/>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name20" axis="self" ptType="node">
+                    <dgm:layoutNode name="Name21">
+                      <dgm:alg type="hierRoot"/>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst/>
+                      <dgm:ruleLst/>
+                      <dgm:layoutNode name="level2Shape">
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                          <dgm:adjLst>
+                            <dgm:adj idx="1" val="0.1"/>
+                          </dgm:adjLst>
+                        </dgm:shape>
+                        <dgm:presOf axis="self"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="primFontSz" val="65"/>
+                          <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                          <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                          <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                          <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="hierChild3">
+                        <dgm:choose name="Name22">
+                          <dgm:if name="Name23" func="var" arg="dir" op="equ" val="norm">
+                            <dgm:alg type="hierChild">
+                              <dgm:param type="linDir" val="fromL"/>
+                            </dgm:alg>
+                          </dgm:if>
+                          <dgm:else name="Name24">
+                            <dgm:alg type="hierChild">
+                              <dgm:param type="linDir" val="fromR"/>
+                            </dgm:alg>
+                          </dgm:else>
+                        </dgm:choose>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst/>
+                        <dgm:ruleLst/>
+                        <dgm:forEach name="Name25" ref="repeat"/>
+                      </dgm:layoutNode>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                </dgm:forEach>
+              </dgm:layoutNode>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:layoutNode>
+    </dgm:layoutNode>
+    <dgm:layoutNode name="bgShapesFlow">
+      <dgm:alg type="lin">
+        <dgm:param type="linDir" val="fromT"/>
+        <dgm:param type="nodeVertAlign" val="t"/>
+        <dgm:param type="vertAlign" val="t"/>
+        <dgm:param type="nodeHorzAlign" val="ctr"/>
+      </dgm:alg>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="userB"/>
+        <dgm:constr type="w" for="ch" forName="rectComp" refType="w"/>
+        <dgm:constr type="h" for="ch" forName="rectComp" refType="h"/>
+        <dgm:constr type="w" for="des" forName="bgRect" refType="w"/>
+        <dgm:constr type="primFontSz" for="des" forName="bgRectTx" op="equ"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name26" axis="ch" ptType="node" st="2">
+        <dgm:layoutNode name="rectComp">
+          <dgm:alg type="composite">
+            <dgm:param type="vertAlign" val="t"/>
+            <dgm:param type="horzAlign" val="ctr"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:choose name="Name27">
+            <dgm:if name="Name28" func="var" arg="dir" op="equ" val="norm">
+              <dgm:constrLst>
+                <dgm:constr type="userA"/>
+                <dgm:constr type="l" for="ch" forName="bgRect"/>
+                <dgm:constr type="t" for="ch" forName="bgRect"/>
+                <dgm:constr type="h" for="ch" forName="bgRect" refType="userA" fact="1.2"/>
+                <dgm:constr type="l" for="ch" forName="bgRectTx"/>
+                <dgm:constr type="t" for="ch" forName="bgRectTx"/>
+                <dgm:constr type="w" for="ch" forName="bgRectTx" refType="w" refFor="ch" refForName="bgRect" fact="0.3"/>
+                <dgm:constr type="h" for="ch" forName="bgRectTx" refType="h" refFor="ch" refForName="bgRect" op="equ"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name29">
+              <dgm:constrLst>
+                <dgm:constr type="userA"/>
+                <dgm:constr type="l" for="ch" forName="bgRect"/>
+                <dgm:constr type="t" for="ch" forName="bgRect"/>
+                <dgm:constr type="h" for="ch" forName="bgRect" refType="userA" fact="1.2"/>
+                <dgm:constr type="r" for="ch" forName="bgRectTx" refType="w"/>
+                <dgm:constr type="t" for="ch" forName="bgRectTx"/>
+                <dgm:constr type="w" for="ch" forName="bgRectTx" refType="w" refFor="ch" refForName="bgRect" fact="0.3"/>
+                <dgm:constr type="h" for="ch" forName="bgRectTx" refType="h" refFor="ch" refForName="bgRect" op="equ"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="bgRect" styleLbl="bgShp">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" zOrderOff="-999">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="bgRectTx" styleLbl="bgShp">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" zOrderOff="-999" hideGeom="1">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:constrLst>
+              <dgm:constr type="primFontSz" val="65"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+        <dgm:choose name="Name30">
+          <dgm:if name="Name31" axis="self" ptType="node" func="revPos" op="gte" val="2">
+            <dgm:layoutNode name="spComp">
+              <dgm:alg type="composite">
+                <dgm:param type="vertAlign" val="t"/>
+                <dgm:param type="horzAlign" val="ctr"/>
+              </dgm:alg>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst>
+                <dgm:constr type="userA"/>
+                <dgm:constr type="userB"/>
+                <dgm:constr type="l" for="ch" forName="vSp"/>
+                <dgm:constr type="t" for="ch" forName="vSp"/>
+                <dgm:constr type="h" for="ch" forName="vSp" refType="userB"/>
+                <dgm:constr type="hOff" for="ch" forName="vSp" refType="userA" fact="-0.2"/>
+              </dgm:constrLst>
+              <dgm:ruleLst/>
+              <dgm:layoutNode name="vSp">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst/>
+                <dgm:ruleLst/>
+              </dgm:layoutNode>
+            </dgm:layoutNode>
+          </dgm:if>
+          <dgm:else name="Name32"/>
+        </dgm:choose>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>97143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDCE707-7CF0-483B-8DA6-C05249C2F201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="15259050"/>
+          <a:ext cx="1381125" cy="1363968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Sequential Access Storage 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F0C4A1-3B3B-44CE-B881-D6E13D83BDA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="16659225"/>
+          <a:ext cx="1057275" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticTape">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2A4061-2E57-4A2B-BE9A-1EC03C52ACED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId2" r:lo="rId3" r:qs="rId4" r:cs="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DBD1AD-DE8D-4CF3-8234-7E99370368A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8297A2-5F25-469B-B5F0-64E6D6407D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,10 +7264,35 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FBB8BE5-D380-4580-9DB5-ADCF1A85EF58}" name="Table2" displayName="Table2" ref="A62:E65" totalsRowShown="0">
+  <autoFilter ref="A62:E65" xr:uid="{C15D4C13-C1DE-453F-8974-BE244331737C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CF2B47E2-B953-41C3-A332-7B8A5E3592C6}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F2482FE1-361A-4BDE-8C30-FF90589F4E92}" name="Mahmoud"/>
+    <tableColumn id="3" xr3:uid="{42CBAF58-E5F3-4496-9EEB-67E233A09F84}" name="Mostafa"/>
+    <tableColumn id="4" xr3:uid="{82009816-6AEB-46A8-89B7-481115F29755}" name="اسم اتعدل بعدين"/>
+    <tableColumn id="5" xr3:uid="{6275BAF9-AD46-491D-819D-2285EDFA0925}" name="Khalifa" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D35C0DD-440C-4780-8F94-04F974F03C6C}" name="Table3" displayName="Table3" ref="A103:B111" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A103:B111" xr:uid="{A934AB5F-01B7-45A7-82E8-E3AD97EC9E0D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{775E640A-D344-4D0F-87F9-887B20E7D765}" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8CE93C97-EF58-4FB6-8D58-45C0FB866496}" name="Sales amount" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Berlin">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Berlin">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -878,48 +7300,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="9D360E"/>
       </a:dk2>
       <a:lt2>
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="F09415"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C1B56B"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="4BAF73"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="5AA6C0"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D17DF9"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="FA7E5C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="FFAE3E"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FCC77E"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Berlin">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -943,35 +7365,18 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -995,26 +7400,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Berlin">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1023,23 +7411,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="60000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="70000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1049,23 +7430,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1073,26 +7454,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1126,28 +7504,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="96000"/>
+                <a:shade val="100000"/>
+                <a:hueMod val="270000"/>
+                <a:satMod val="200000"/>
+                <a:lumMod val="128000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:shade val="100000"/>
+                <a:hueMod val="100000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+                <a:hueMod val="44000"/>
+                <a:satMod val="200000"/>
+                <a:lumMod val="69000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2520000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1156,410 +7537,434 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Berlin" id="{7B5DBA9E-B069-418E-9360-A61BDD0615A4}" vid="{C0CBE056-4EF4-4D92-969E-947779DA7AAA}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{23E6DA6C-99CB-4C14-AA8A-8F6CBB08AC71}">
+  <we:reference id="wa104381181" version="2.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104381181" version="2.0.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37473475-F877-4C1B-B637-55CB1CB44114}">
-  <dimension ref="A1:XFC42"/>
+  <dimension ref="A1:XFC150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="16382" max="16382" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16383" max="16383" width="24.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
+    <col min="16382" max="16382" width="14.88671875" customWidth="1"/>
+    <col min="16383" max="16383" width="24.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16382:16383" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="XFB1" s="41" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="XFB1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="XFC1" s="42"/>
-    </row>
-    <row r="2" spans="1:6 16382:16383" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="XFC1" s="51"/>
+    </row>
+    <row r="2" spans="1:6 16382:16383" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="XFB2" s="39" t="s">
+      <c r="XFB2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="XFC2" s="40"/>
-    </row>
-    <row r="3" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="XFC2" s="49"/>
+    </row>
+    <row r="3" spans="1:6 16382:16383" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>45</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="XFB3" s="46" t="s">
+      <c r="XFB3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="XFC3" s="44" t="s">
+      <c r="XFC3" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="F4" s="20" t="s">
+      <c r="B4" s="52"/>
+      <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="XFB4" s="47" t="s">
+      <c r="XFB4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="XFC4" s="34" t="s">
+      <c r="XFC4" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>46</v>
       </c>
-      <c r="XFB5" s="47" t="s">
+      <c r="XFB5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="XFC5" s="34" t="s">
+      <c r="XFC5" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>50</v>
       </c>
-      <c r="XFB6" s="47" t="s">
+      <c r="XFB6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="XFC6" s="34" t="s">
+      <c r="XFC6" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>42</v>
       </c>
-      <c r="XFB7" s="47" t="s">
+      <c r="XFB7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="XFC7" s="34" t="s">
+      <c r="XFC7" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="XFB8" s="48" t="s">
+    <row r="8" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="XFB8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="XFC8" s="35" t="s">
+      <c r="XFC8" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="XFB9" s="47" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="XFB9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="XFC9" s="34" t="s">
+      <c r="XFC9" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="XFB10" s="47" t="s">
+      <c r="XFB10" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="XFC10" s="34" t="s">
+      <c r="XFC10" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6 16382:16383" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:6 16382:16383" ht="43.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>24</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>25</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="XFB12" s="39" t="s">
+      <c r="F12" s="18"/>
+      <c r="XFB12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="XFC12" s="40"/>
-    </row>
-    <row r="13" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="XFC12" s="49"/>
+    </row>
+    <row r="13" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>24</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>26</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>24</v>
       </c>
-      <c r="XFB13" s="46" t="s">
+      <c r="XFB13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="XFC13" s="49" t="s">
+      <c r="XFC13" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6 16382:16383" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:6 16382:16383" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>24</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>27</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>25</v>
       </c>
-      <c r="XFB14" s="47" t="s">
+      <c r="XFB14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="XFC14" s="45" t="s">
+      <c r="XFC14" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>24</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>28</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>26</v>
       </c>
-      <c r="XFB15" s="47" t="s">
+      <c r="XFB15" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="XFC15" s="45" t="s">
+      <c r="XFC15" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="XFB17" s="39" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="XFB17" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="XFC17" s="40"/>
-    </row>
-    <row r="18" spans="1:6 16382:16383" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="XFC17" s="49"/>
+    </row>
+    <row r="18" spans="1:6 16382:16383" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="XFB18" s="43" t="s">
+      <c r="XFB18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="XFC18" s="49" t="s">
+      <c r="XFC18" s="40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="20">
         <v>1</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="19">
         <v>2</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <v>2</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="21">
         <v>4</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="21">
         <v>3</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="A21" s="20">
         <v>3</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="19">
         <v>6</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>5</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <v>4</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="21">
         <v>8</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="21">
         <v>7</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
+      <c r="A23" s="20">
         <v>5</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="19">
         <v>10</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>9</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27">
+      <c r="A24" s="23">
         <v>6</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="24">
         <v>12</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="24">
         <v>11</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1575,232 +7980,958 @@
       <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="F32" s="20" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="F32" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="XFB32" s="39" t="s">
+      <c r="XFB32" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="XFC32" s="40"/>
-    </row>
-    <row r="33" spans="1:6 16382:16383" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="str">
+      <c r="XFC32" s="49"/>
+    </row>
+    <row r="33" spans="1:6 16382:16383" ht="32.4" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="str">
         <f t="shared" ref="A33:D37" si="0">A11</f>
         <v>Name</v>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Arabic</v>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>English</v>
       </c>
-      <c r="D33" s="9" t="str">
+      <c r="D33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>French</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="XFB33" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="XFC33" s="49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="str">
+      <c r="XFB33" s="37"/>
+      <c r="XFC33" s="40"/>
+    </row>
+    <row r="34" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Mahmoud</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="XFB34" s="47" t="s">
+      <c r="XFB34" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="XFC34" s="45" t="s">
+      <c r="XFC34" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="str">
+    <row r="35" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Mostafa</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="XFB35" s="47" t="s">
+      <c r="XFB35" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="XFC35" s="45" t="s">
+      <c r="XFC35" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6 16382:16383" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
+    <row r="36" spans="1:6 16382:16383" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="str">
         <f t="shared" si="0"/>
         <v>اسم اتعدل بعدين</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="XFB36" s="46" t="s">
+      <c r="XFB36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="XFC36" s="49" t="s">
+      <c r="XFC36" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="str">
+    <row r="37" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Khalifa</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="XFB37" s="47" t="s">
+      <c r="XFB37" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="XFC37" s="45" t="s">
+      <c r="XFC37" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:6 16382:16383" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:6 16382:16383" ht="33" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>24</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>24</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <v>24</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>25</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>26</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>27</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6 16382:16383" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>25</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>24</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>25</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>26</v>
       </c>
     </row>
+    <row r="44" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="XFB45" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="XFC45" s="49"/>
+    </row>
+    <row r="46" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F46" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="XFB46" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="XFC46" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="XFB47" s="38"/>
+      <c r="XFC47" s="36"/>
+    </row>
+    <row r="48" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="53" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="XFB54" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="XFC54" s="49"/>
+    </row>
+    <row r="55" spans="1:6 16382:16383" ht="32.4" x14ac:dyDescent="0.35">
+      <c r="A55" s="41">
+        <v>10</v>
+      </c>
+      <c r="B55" s="42">
+        <v>10</v>
+      </c>
+      <c r="C55" s="43">
+        <v>10</v>
+      </c>
+      <c r="D55" s="44">
+        <v>10</v>
+      </c>
+      <c r="E55" s="45">
+        <v>10</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="XFB55" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="XFC55" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F56" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="XFC56"/>
+    </row>
+    <row r="57" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="60" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="XFB61" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="XFC61" s="49"/>
+    </row>
+    <row r="62" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="XFB62" s="37"/>
+      <c r="XFC62" s="40"/>
+    </row>
+    <row r="63" spans="1:6 16382:16383" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="10">
+        <v>24</v>
+      </c>
+      <c r="C63" s="10">
+        <v>24</v>
+      </c>
+      <c r="D63" s="10">
+        <v>24</v>
+      </c>
+      <c r="E63" s="13">
+        <v>24</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6 16382:16383" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="10">
+        <v>25</v>
+      </c>
+      <c r="C64" s="10">
+        <v>26</v>
+      </c>
+      <c r="D64" s="10">
+        <v>27</v>
+      </c>
+      <c r="E64" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="11">
+        <v>25</v>
+      </c>
+      <c r="C65" s="11">
+        <v>24</v>
+      </c>
+      <c r="D65" s="11">
+        <v>25</v>
+      </c>
+      <c r="E65" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A86" s="41"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+      <c r="F87" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A92" s="42">
+        <v>20</v>
+      </c>
+      <c r="B92" s="42">
+        <v>20</v>
+      </c>
+      <c r="C92" s="42">
+        <f>A92+B92</f>
+        <v>40</v>
+      </c>
+      <c r="D92" s="44"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="113.4" x14ac:dyDescent="0.35">
+      <c r="F93" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="129.6" x14ac:dyDescent="0.35">
+      <c r="F98" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A103" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="58">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="58">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="58">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="60">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="60">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="60">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="60">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F114" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F115" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="XFB132" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="XFC132" s="49"/>
+    </row>
+    <row r="133" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>116</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="XFB133" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="XFC133" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6 16382:16383" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>14</v>
+      </c>
+      <c r="F134" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135">
+        <v>18.5</v>
+      </c>
+      <c r="C135">
+        <v>15.5</v>
+      </c>
+      <c r="D135">
+        <v>13.5</v>
+      </c>
+      <c r="E135">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136">
+        <v>19</v>
+      </c>
+      <c r="C136">
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137">
+        <v>19.5</v>
+      </c>
+      <c r="C137">
+        <v>16.5</v>
+      </c>
+      <c r="D137">
+        <v>14.5</v>
+      </c>
+      <c r="E137">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>17</v>
+      </c>
+      <c r="D138">
+        <v>15</v>
+      </c>
+      <c r="E138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139">
+        <v>20.5</v>
+      </c>
+      <c r="C139">
+        <v>17.5</v>
+      </c>
+      <c r="D139">
+        <v>15.5</v>
+      </c>
+      <c r="E139">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>18</v>
+      </c>
+      <c r="D140">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>124</v>
+      </c>
+      <c r="B141">
+        <v>21.5</v>
+      </c>
+      <c r="C141">
+        <v>18.5</v>
+      </c>
+      <c r="D141">
+        <v>16.5</v>
+      </c>
+      <c r="E141">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6 16382:16383" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>125</v>
+      </c>
+      <c r="B142">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>19</v>
+      </c>
+      <c r="D142">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143">
+        <v>22.5</v>
+      </c>
+      <c r="C143">
+        <v>19.5</v>
+      </c>
+      <c r="D143">
+        <v>17.5</v>
+      </c>
+      <c r="E143">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6 16382:16383" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="64">
+        <f>SUM(B134:B143)</f>
+        <v>202.5</v>
+      </c>
+      <c r="C144" s="64">
+        <f>SUM(C134:C143)</f>
+        <v>172.5</v>
+      </c>
+      <c r="D144" s="64">
+        <f>SUM(D134:D143)</f>
+        <v>152.5</v>
+      </c>
+      <c r="E144" s="65">
+        <f>SUM(E134:E143)</f>
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D145" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E145" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A146" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="68">
+        <f>MAX(B134:B143)</f>
+        <v>22.5</v>
+      </c>
+      <c r="C146" s="68">
+        <f>MAX(C134:C143)</f>
+        <v>19.5</v>
+      </c>
+      <c r="D146" s="68">
+        <f>MAX(D134:D143)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E146" s="69">
+        <f>MAX(E134:E143)</f>
+        <v>18.5</v>
+      </c>
+      <c r="F146" s="66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="71">
+        <f>MIN(B134:B143)</f>
+        <v>18</v>
+      </c>
+      <c r="C147" s="71">
+        <f>MIN(C134:C143)</f>
+        <v>15</v>
+      </c>
+      <c r="D147" s="71">
+        <f>MIN(D134:D143)</f>
+        <v>13</v>
+      </c>
+      <c r="E147" s="72">
+        <f>MIN(E134:E143)</f>
+        <v>14</v>
+      </c>
+      <c r="F147" s="66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D148" s="61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" s="71">
+        <f>AVERAGE(B134:B143)</f>
+        <v>20.25</v>
+      </c>
+      <c r="C149" s="71">
+        <f>AVERAGE(C134:C143)</f>
+        <v>17.25</v>
+      </c>
+      <c r="D149" s="71">
+        <f>AVERAGE(D134:D143)</f>
+        <v>15.25</v>
+      </c>
+      <c r="E149" s="72">
+        <f>AVERAGE(E134:E143)</f>
+        <v>16.25</v>
+      </c>
+      <c r="F149" s="66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B150" s="73" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="25">
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="XFB132:XFC132"/>
     <mergeCell ref="XFB1:XFC1"/>
     <mergeCell ref="XFB32:XFC32"/>
     <mergeCell ref="A31:F31"/>
@@ -1813,12 +8944,27 @@
     <mergeCell ref="XFB17:XFC17"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="XFB45:XFC45"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="XFB54:XFC54"/>
+    <mergeCell ref="XFB61:XFC61"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A32:D32" location="'Right to left sheet'!A1" display="See Right to Left Sheet" xr:uid="{FE6C0ED7-2A65-4C03-97FC-6032C0BB045B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1830,7 +8976,16 @@
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Sheet1!A32" display="Sheet1" xr:uid="{869CBD6B-3D4C-47DD-B523-31B347FCA180}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>